--- a/1.Arquitectura_de_software-REPOSITORIO/2.TRIMESTRE_4/2.HISTORIAS DE USUARIO/HISTORIAS_USUARIO-SCRUM 5.xlsx
+++ b/1.Arquitectura_de_software-REPOSITORIO/2.TRIMESTRE_4/2.HISTORIAS DE USUARIO/HISTORIAS_USUARIO-SCRUM 5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1.REPOSITORIO-WYK-PANADERIA.github.io\1.Arquitectura_de_software-REPOSITORIO\2.HISTORIAS DE USUARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\1.REPOSITORIO-WYK-PANADERIA.github.io\1.Arquitectura_de_software-REPOSITORIO\2.TRIMESTRE_4\2.HISTORIAS DE USUARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC5FC55-1458-401F-9406-14BAFB83808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D28A9C1-5E69-45F8-9DB4-D1BC8F5C1A24}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="268">
   <si>
     <t>Enunciado de la historia</t>
   </si>
@@ -157,52 +157,22 @@
     <t>009</t>
   </si>
   <si>
-    <t>Necesito consultar todos los cargos existentes en el sistema en la tabla de consultas.</t>
-  </si>
-  <si>
     <t>Datos no encontrados en el sistema.</t>
   </si>
   <si>
     <t>En caso no arroje ningún registro existente de usuarios en el sistema.</t>
   </si>
   <si>
-    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios cargos en el sistema.</t>
-  </si>
-  <si>
     <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios usuarios en el sistema.</t>
   </si>
   <si>
-    <t>En caso no arroje ningún registro existente de cargos en el sistema.</t>
-  </si>
-  <si>
     <t>010</t>
-  </si>
-  <si>
-    <t>Necesito registrar un cargo en el sistema.</t>
-  </si>
-  <si>
-    <t>En caso de ya existir el número de identificación del cargo en el sistema.</t>
-  </si>
-  <si>
-    <t>Cuando digite el formulario para crear un cargo en el sistema. y realice la acción de "enviar".</t>
-  </si>
-  <si>
-    <t>El sistema verifica que el número de identificación del cargo a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este cargo ya existe. Inténtelo con uno nuevo”.</t>
-  </si>
-  <si>
-    <t>Necesito actualizar los datos de un cargo ya existente en el sistema.</t>
-  </si>
-  <si>
-    <t>Con la finalidad de mantener actualizada la información de cada registro de un cargo existente en el sistema.</t>
   </si>
   <si>
     <t>Con la finalidad de mantener actualizada la información de cada registro de un usuario existente en el sistema.</t>
   </si>
   <si>
     <t>011</t>
-  </si>
-  <si>
-    <t>Con la finalidad de eliminar toda la información innecesaria de un cargo en el sistema.</t>
   </si>
   <si>
     <t>Con la finalidad de eliminar toda la información innecesaria de un usuario en el sistema.</t>
@@ -214,12 +184,6 @@
     <t>013</t>
   </si>
   <si>
-    <t>Necesito desactivar todos los datos de un cargo ya existente en el sistema.</t>
-  </si>
-  <si>
-    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un cargo en el sistema para su uso en un futuro.</t>
-  </si>
-  <si>
     <t>Necesito consultar mi propio usuario existente en el sistema.</t>
   </si>
   <si>
@@ -227,15 +191,6 @@
   </si>
   <si>
     <t>015</t>
-  </si>
-  <si>
-    <t>Necesito consultar mi propio cargo existente en el sistema.</t>
-  </si>
-  <si>
-    <t>Con la finalidad de saber el cargo especifico que tengo en el sistema.</t>
-  </si>
-  <si>
-    <t>En caso no arroje ningún registro existente del cargo propio del empleado en el sistema.</t>
   </si>
   <si>
     <t>016</t>
@@ -374,9 +329,6 @@
   </si>
   <si>
     <t>030</t>
-  </si>
-  <si>
-    <t>Con la finalidad de almacenar información de cargos nuevos en el sistema.</t>
   </si>
   <si>
     <t>En caso de ya existir el número de identificación del cliente en el sistema.</t>
@@ -793,9 +745,6 @@
     <t>Necesito desactivar el registro de un usuario ya existente en el sistema.</t>
   </si>
   <si>
-    <t>Necesito eliminar todos los datos de un cargo ya existente en el sistema (con el requisito de NO estar relacionado con otros registros).</t>
-  </si>
-  <si>
     <t>Necesito eliminar todos los datos de un empleado ya existente en el sistema (con el requisito de NO estar relacionado con otros registros).</t>
   </si>
   <si>
@@ -818,6 +767,63 @@
   </si>
   <si>
     <t>Necesito eliminar todos los datos de un pedido ya existente en el sistema (con el requisito de NO estar relacionado con otros registros).</t>
+  </si>
+  <si>
+    <t>Necesito consultar todos los roles existentes en el sistema en la tabla de consultas.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de realizar consultas generales y específicas para verificar la existencia de uno solo o varios roles en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente de roles en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito registrar un rol en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de almacenar información de roles nuevos en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso de ya existir el número de identificación del rol en el sistema.</t>
+  </si>
+  <si>
+    <t>Cuando digite el formulario para crear un rol en el sistema. y realice la acción de "enviar".</t>
+  </si>
+  <si>
+    <t>Necesito actualizar los datos de un rol ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener actualizada la información de cada registro de un rol existente en el sistema.</t>
+  </si>
+  <si>
+    <t>El sistema verifica que el número de identificación del cargo a registrar ya existe, por tal razón, se mostrará en pantalla el mensaje “Este rol ya existe. Inténtelo con uno nuevo”.</t>
+  </si>
+  <si>
+    <t>Necesito eliminar todos los datos de un rol ya existente en el sistema (con el requisito de NO estar relacionado con otros registros).</t>
+  </si>
+  <si>
+    <t>Con la finalidad de eliminar toda la información innecesaria de un rol en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito desactivar todos los datos de un rol ya existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de mantener oculta, intacta y almacenada la información de un rol en el sistema para su uso en un futuro.</t>
+  </si>
+  <si>
+    <t>Necesito consultar mi propio rol existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de saber el rol especifico que tengo en el sistema.</t>
+  </si>
+  <si>
+    <t>En caso no arroje ningún registro existente del rol propio del empleado en el sistema.</t>
+  </si>
+  <si>
+    <t>Necesito consultar mi propio usuario e información existente en el sistema.</t>
+  </si>
+  <si>
+    <t>Con la finalidad de ver detalladamente la información que lo compone, incluyendo su respectiva clasificación.</t>
   </si>
 </sst>
 </file>
@@ -895,7 +901,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,8 +938,26 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1103,11 +1127,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1274,20 +1311,23 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,31 +1335,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,10 +1352,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,10 +1621,10 @@
   <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1606,18 +1673,18 @@
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="72" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1683,17 +1750,17 @@
     </row>
     <row r="4" spans="1:26" ht="45">
       <c r="A4" s="7"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="65" t="s">
-        <v>49</v>
+      <c r="E4" s="67" t="s">
+        <v>47</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -1729,18 +1796,18 @@
     </row>
     <row r="5" spans="1:26" ht="60">
       <c r="A5" s="7"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="20">
         <v>2</v>
       </c>
       <c r="G5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>25</v>
@@ -1795,17 +1862,17 @@
     </row>
     <row r="7" spans="1:26" ht="45">
       <c r="A7" s="3"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>254</v>
+      <c r="E7" s="61" t="s">
+        <v>238</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -1841,10 +1908,10 @@
     </row>
     <row r="8" spans="1:26" ht="75">
       <c r="A8" s="3"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="8">
         <v>2</v>
       </c>
@@ -1917,7 +1984,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1988,10 +2055,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -2062,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>34</v>
@@ -2129,17 +2196,17 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="3"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>93</v>
+      <c r="D16" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>267</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -2175,18 +2242,18 @@
     </row>
     <row r="17" spans="1:26" ht="60">
       <c r="A17" s="3"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="20">
         <v>2</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>25</v>
@@ -2241,16 +2308,16 @@
     </row>
     <row r="19" spans="1:26" ht="90">
       <c r="A19" s="3"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="63" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="8">
@@ -2287,10 +2354,10 @@
     </row>
     <row r="20" spans="1:26" ht="75">
       <c r="A20" s="3"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="8">
         <v>2</v>
       </c>
@@ -2353,17 +2420,17 @@
     </row>
     <row r="22" spans="1:26" ht="75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>93</v>
+      <c r="D22" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -2399,18 +2466,18 @@
     </row>
     <row r="23" spans="1:26" ht="60">
       <c r="A23" s="3"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="20">
         <v>2</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>25</v>
@@ -2472,19 +2539,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F25" s="34">
         <v>1</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>26</v>
@@ -2540,31 +2607,31 @@
     <row r="27" spans="1:26" ht="75">
       <c r="A27" s="3"/>
       <c r="B27" s="55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F27" s="34">
         <v>1</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2614,25 +2681,25 @@
     <row r="29" spans="1:26" ht="75">
       <c r="A29" s="3"/>
       <c r="B29" s="55" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F29" s="34">
         <v>1</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>26</v>
@@ -2688,31 +2755,31 @@
     <row r="31" spans="1:26" ht="75">
       <c r="A31" s="3"/>
       <c r="B31" s="55" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F31" s="34">
         <v>1</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2762,25 +2829,25 @@
     <row r="33" spans="1:26" ht="75">
       <c r="A33" s="3"/>
       <c r="B33" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>26</v>
@@ -2836,31 +2903,31 @@
     <row r="35" spans="1:26" ht="75">
       <c r="A35" s="3"/>
       <c r="B35" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2909,17 +2976,17 @@
     </row>
     <row r="37" spans="1:26" ht="45">
       <c r="A37" s="3"/>
-      <c r="B37" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>48</v>
+      <c r="D37" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>250</v>
       </c>
       <c r="F37" s="8">
         <v>1</v>
@@ -2955,18 +3022,18 @@
     </row>
     <row r="38" spans="1:26" ht="60">
       <c r="A38" s="3"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="59"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="20">
         <v>2</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>25</v>
@@ -3021,17 +3088,17 @@
     </row>
     <row r="40" spans="1:26" ht="45">
       <c r="A40" s="3"/>
-      <c r="B40" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="62" t="s">
+      <c r="B40" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>118</v>
+      <c r="D40" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>253</v>
       </c>
       <c r="F40" s="8">
         <v>1</v>
@@ -3067,10 +3134,10 @@
     </row>
     <row r="41" spans="1:26" ht="60">
       <c r="A41" s="3"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="8">
         <v>2</v>
       </c>
@@ -3078,13 +3145,13 @@
         <v>28</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3134,16 +3201,16 @@
     <row r="43" spans="1:26" ht="60">
       <c r="A43" s="3"/>
       <c r="B43" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="F43" s="8">
         <v>1</v>
@@ -3208,16 +3275,16 @@
     <row r="45" spans="1:26" ht="105">
       <c r="A45" s="3"/>
       <c r="B45" s="14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="F45" s="8">
         <v>1</v>
@@ -3235,7 +3302,7 @@
         <v>27</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3284,16 +3351,16 @@
     <row r="47" spans="1:26" ht="75">
       <c r="A47" s="3"/>
       <c r="B47" s="14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -3357,17 +3424,17 @@
     </row>
     <row r="49" spans="1:26" ht="45">
       <c r="A49" s="3"/>
-      <c r="B49" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="58" t="s">
+      <c r="B49" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>70</v>
+      <c r="D49" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>264</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
@@ -3403,18 +3470,18 @@
     </row>
     <row r="50" spans="1:26" ht="75">
       <c r="A50" s="3"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="20">
         <v>2</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>25</v>
@@ -3469,17 +3536,17 @@
     </row>
     <row r="52" spans="1:26" ht="45">
       <c r="A52" s="3"/>
-      <c r="B52" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="62" t="s">
+      <c r="B52" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>76</v>
+      <c r="D52" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>61</v>
       </c>
       <c r="F52" s="8">
         <v>1</v>
@@ -3515,24 +3582,24 @@
     </row>
     <row r="53" spans="1:26" ht="60">
       <c r="A53" s="3"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="59"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="20">
         <v>2</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3581,17 +3648,17 @@
     </row>
     <row r="55" spans="1:26" ht="45">
       <c r="A55" s="3"/>
-      <c r="B55" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="62" t="s">
+      <c r="B55" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>116</v>
+      <c r="D55" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="F55" s="8">
         <v>1</v>
@@ -3627,10 +3694,10 @@
     </row>
     <row r="56" spans="1:26" ht="75">
       <c r="A56" s="3"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="8">
         <v>2</v>
       </c>
@@ -3638,13 +3705,13 @@
         <v>28</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3694,16 +3761,16 @@
     <row r="58" spans="1:26" ht="60">
       <c r="A58" s="3"/>
       <c r="B58" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F58" s="8">
         <v>1</v>
@@ -3768,16 +3835,16 @@
     <row r="60" spans="1:26" ht="105">
       <c r="A60" s="3"/>
       <c r="B60" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F60" s="8">
         <v>1</v>
@@ -3842,16 +3909,16 @@
     <row r="62" spans="1:26" ht="75">
       <c r="A62" s="3"/>
       <c r="B62" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F62" s="8">
         <v>1</v>
@@ -3915,17 +3982,17 @@
     </row>
     <row r="64" spans="1:26" ht="45">
       <c r="A64" s="3"/>
-      <c r="B64" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="58" t="s">
+      <c r="B64" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>131</v>
+      <c r="D64" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="F64" s="8">
         <v>1</v>
@@ -3961,18 +4028,18 @@
     </row>
     <row r="65" spans="1:26" ht="75">
       <c r="A65" s="3"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="20">
         <v>2</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>25</v>
@@ -4027,17 +4094,17 @@
     </row>
     <row r="67" spans="1:26" ht="45">
       <c r="A67" s="3"/>
-      <c r="B67" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="62" t="s">
+      <c r="B67" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="65" t="s">
-        <v>112</v>
+      <c r="D67" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>97</v>
       </c>
       <c r="F67" s="8">
         <v>1</v>
@@ -4073,24 +4140,24 @@
     </row>
     <row r="68" spans="1:26" ht="60">
       <c r="A68" s="3"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="20">
         <v>2</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>25</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4139,17 +4206,17 @@
     </row>
     <row r="70" spans="1:26" ht="45">
       <c r="A70" s="3"/>
-      <c r="B70" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="62" t="s">
+      <c r="B70" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>115</v>
+      <c r="D70" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="61" t="s">
+        <v>100</v>
       </c>
       <c r="F70" s="8">
         <v>1</v>
@@ -4185,10 +4252,10 @@
     </row>
     <row r="71" spans="1:26" ht="60">
       <c r="A71" s="3"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="8">
         <v>2</v>
       </c>
@@ -4196,13 +4263,13 @@
         <v>28</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4252,16 +4319,16 @@
     <row r="73" spans="1:26" ht="60">
       <c r="A73" s="3"/>
       <c r="B73" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F73" s="8">
         <v>1</v>
@@ -4326,16 +4393,16 @@
     <row r="75" spans="1:26" ht="105">
       <c r="A75" s="3"/>
       <c r="B75" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F75" s="8">
         <v>1</v>
@@ -4400,16 +4467,16 @@
     <row r="77" spans="1:26" ht="75">
       <c r="A77" s="3"/>
       <c r="B77" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F77" s="8">
         <v>1</v>
@@ -4473,17 +4540,17 @@
     </row>
     <row r="79" spans="1:26" ht="45">
       <c r="A79" s="3"/>
-      <c r="B79" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="58" t="s">
+      <c r="B79" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="58" t="s">
-        <v>131</v>
+      <c r="D79" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="F79" s="8">
         <v>1</v>
@@ -4519,18 +4586,18 @@
     </row>
     <row r="80" spans="1:26" ht="75">
       <c r="A80" s="3"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="20">
         <v>2</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I80" s="21" t="s">
         <v>25</v>
@@ -4585,17 +4652,17 @@
     </row>
     <row r="82" spans="1:26" ht="45">
       <c r="A82" s="3"/>
-      <c r="B82" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="68" t="s">
+      <c r="B82" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>135</v>
+      <c r="D82" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="F82" s="8">
         <v>1</v>
@@ -4631,18 +4698,18 @@
     </row>
     <row r="83" spans="1:26" ht="75">
       <c r="A83" s="3"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="59"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="20">
         <v>2</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="I83" s="21" t="s">
         <v>25</v>
@@ -4697,17 +4764,17 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="3"/>
-      <c r="B85" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="62" t="s">
+      <c r="B85" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>139</v>
+      <c r="D85" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E85" s="61" t="s">
+        <v>123</v>
       </c>
       <c r="F85" s="8">
         <v>1</v>
@@ -4743,10 +4810,10 @@
     </row>
     <row r="86" spans="1:26" ht="75">
       <c r="A86" s="3"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="8">
         <v>2</v>
       </c>
@@ -4754,13 +4821,13 @@
         <v>28</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -4810,16 +4877,16 @@
     <row r="88" spans="1:26" ht="60">
       <c r="A88" s="3"/>
       <c r="B88" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F88" s="8">
         <v>1</v>
@@ -4884,16 +4951,16 @@
     <row r="90" spans="1:26" ht="105">
       <c r="A90" s="3"/>
       <c r="B90" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F90" s="8">
         <v>1</v>
@@ -4958,16 +5025,16 @@
     <row r="92" spans="1:26" ht="75">
       <c r="A92" s="3"/>
       <c r="B92" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F92" s="8">
         <v>1</v>
@@ -5031,17 +5098,17 @@
     </row>
     <row r="94" spans="1:26" ht="45">
       <c r="A94" s="3"/>
-      <c r="B94" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" s="70" t="s">
+      <c r="B94" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="71" t="s">
-        <v>135</v>
+      <c r="D94" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="F94" s="8">
         <v>1</v>
@@ -5077,18 +5144,18 @@
     </row>
     <row r="95" spans="1:26" ht="75">
       <c r="A95" s="3"/>
-      <c r="B95" s="76"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="59"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
       <c r="F95" s="20">
         <v>2</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="I95" s="21" t="s">
         <v>25</v>
@@ -5143,17 +5210,17 @@
     </row>
     <row r="97" spans="1:26" ht="45">
       <c r="A97" s="3"/>
-      <c r="B97" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="68" t="s">
+      <c r="B97" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="71" t="s">
-        <v>154</v>
+      <c r="D97" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="F97" s="8">
         <v>1</v>
@@ -5189,18 +5256,18 @@
     </row>
     <row r="98" spans="1:26" ht="60">
       <c r="A98" s="3"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="59"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
       <c r="F98" s="20">
         <v>2</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" s="21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I98" s="21" t="s">
         <v>25</v>
@@ -5255,17 +5322,17 @@
     </row>
     <row r="100" spans="1:26" ht="45">
       <c r="A100" s="3"/>
-      <c r="B100" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="62" t="s">
+      <c r="B100" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" s="63" t="s">
-        <v>158</v>
+      <c r="D100" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" s="61" t="s">
+        <v>142</v>
       </c>
       <c r="F100" s="8">
         <v>1</v>
@@ -5301,10 +5368,10 @@
     </row>
     <row r="101" spans="1:26" ht="75">
       <c r="A101" s="3"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="8">
         <v>2</v>
       </c>
@@ -5312,13 +5379,13 @@
         <v>28</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -5368,16 +5435,16 @@
     <row r="103" spans="1:26" ht="60">
       <c r="A103" s="3"/>
       <c r="B103" s="14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F103" s="8">
         <v>1</v>
@@ -5442,16 +5509,16 @@
     <row r="105" spans="1:26" ht="105">
       <c r="A105" s="3"/>
       <c r="B105" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F105" s="8">
         <v>1</v>
@@ -5516,16 +5583,16 @@
     <row r="107" spans="1:26" ht="75">
       <c r="A107" s="3"/>
       <c r="B107" s="14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F107" s="8">
         <v>1</v>
@@ -5589,17 +5656,17 @@
     </row>
     <row r="109" spans="1:26" ht="45" customHeight="1">
       <c r="A109" s="3"/>
-      <c r="B109" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="70" t="s">
+      <c r="B109" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D109" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="71" t="s">
-        <v>154</v>
+      <c r="D109" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="F109" s="8">
         <v>1</v>
@@ -5635,18 +5702,18 @@
     </row>
     <row r="110" spans="1:26" ht="60">
       <c r="A110" s="3"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="59"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="20">
         <v>2</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110" s="21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I110" s="21" t="s">
         <v>25</v>
@@ -5701,17 +5768,17 @@
     </row>
     <row r="112" spans="1:26" ht="45">
       <c r="A112" s="3"/>
-      <c r="B112" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" s="68" t="s">
+      <c r="B112" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>173</v>
+      <c r="D112" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="F112" s="8">
         <v>1</v>
@@ -5747,18 +5814,18 @@
     </row>
     <row r="113" spans="1:26" ht="60">
       <c r="A113" s="3"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="59"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="20">
         <v>2</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I113" s="21" t="s">
         <v>25</v>
@@ -5813,17 +5880,17 @@
     </row>
     <row r="115" spans="1:26" ht="45">
       <c r="A115" s="3"/>
-      <c r="B115" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="62" t="s">
+      <c r="B115" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="E115" s="63" t="s">
-        <v>177</v>
+      <c r="D115" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="F115" s="8">
         <v>1</v>
@@ -5859,10 +5926,10 @@
     </row>
     <row r="116" spans="1:26" ht="75">
       <c r="A116" s="3"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
       <c r="F116" s="8">
         <v>2</v>
       </c>
@@ -5870,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -5926,16 +5993,16 @@
     <row r="118" spans="1:26" ht="60">
       <c r="A118" s="3"/>
       <c r="B118" s="14" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F118" s="8">
         <v>1</v>
@@ -6000,16 +6067,16 @@
     <row r="120" spans="1:26" ht="105">
       <c r="A120" s="3"/>
       <c r="B120" s="14" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F120" s="8">
         <v>1</v>
@@ -6074,16 +6141,16 @@
     <row r="122" spans="1:26" ht="75">
       <c r="A122" s="3"/>
       <c r="B122" s="14" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F122" s="8">
         <v>1</v>
@@ -6147,17 +6214,17 @@
     </row>
     <row r="124" spans="1:26" ht="45" customHeight="1">
       <c r="A124" s="3"/>
-      <c r="B124" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C124" s="70" t="s">
+      <c r="B124" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="E124" s="71" t="s">
-        <v>173</v>
+      <c r="D124" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="F124" s="8">
         <v>1</v>
@@ -6193,18 +6260,18 @@
     </row>
     <row r="125" spans="1:26" ht="60">
       <c r="A125" s="3"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="59"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="20">
         <v>2</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I125" s="21" t="s">
         <v>25</v>
@@ -6259,17 +6326,17 @@
     </row>
     <row r="127" spans="1:26" ht="45" customHeight="1">
       <c r="A127" s="3"/>
-      <c r="B127" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="C127" s="68" t="s">
+      <c r="B127" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="E127" s="71" t="s">
-        <v>198</v>
+      <c r="D127" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="61" t="s">
+        <v>182</v>
       </c>
       <c r="F127" s="8">
         <v>1</v>
@@ -6305,18 +6372,18 @@
     </row>
     <row r="128" spans="1:26" ht="60">
       <c r="A128" s="3"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="59"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="20">
         <v>2</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I128" s="21" t="s">
         <v>25</v>
@@ -6371,17 +6438,17 @@
     </row>
     <row r="130" spans="1:26" ht="45">
       <c r="A130" s="3"/>
-      <c r="B130" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C130" s="62" t="s">
+      <c r="B130" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E130" s="63" t="s">
-        <v>200</v>
+      <c r="D130" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E130" s="61" t="s">
+        <v>184</v>
       </c>
       <c r="F130" s="8">
         <v>1</v>
@@ -6417,10 +6484,10 @@
     </row>
     <row r="131" spans="1:26" ht="75">
       <c r="A131" s="3"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="59"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
       <c r="F131" s="8">
         <v>2</v>
       </c>
@@ -6428,13 +6495,13 @@
         <v>28</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -6484,16 +6551,16 @@
     <row r="133" spans="1:26" ht="60">
       <c r="A133" s="3"/>
       <c r="B133" s="14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F133" s="8">
         <v>1</v>
@@ -6558,16 +6625,16 @@
     <row r="135" spans="1:26" ht="105">
       <c r="A135" s="3"/>
       <c r="B135" s="14" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F135" s="8">
         <v>1</v>
@@ -6632,16 +6699,16 @@
     <row r="137" spans="1:26" ht="75">
       <c r="A137" s="3"/>
       <c r="B137" s="14" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F137" s="8">
         <v>1</v>
@@ -6705,17 +6772,17 @@
     </row>
     <row r="139" spans="1:26" ht="45" customHeight="1">
       <c r="A139" s="3"/>
-      <c r="B139" s="75" t="s">
+      <c r="B139" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="61" t="s">
         <v>194</v>
-      </c>
-      <c r="C139" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D139" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="E139" s="71" t="s">
-        <v>210</v>
       </c>
       <c r="F139" s="8">
         <v>1</v>
@@ -6751,18 +6818,18 @@
     </row>
     <row r="140" spans="1:26" ht="60">
       <c r="A140" s="3"/>
-      <c r="B140" s="76"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="59"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
       <c r="F140" s="20">
         <v>2</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I140" s="21" t="s">
         <v>25</v>
@@ -6817,17 +6884,17 @@
     </row>
     <row r="142" spans="1:26" ht="45">
       <c r="A142" s="3"/>
-      <c r="B142" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C142" s="68" t="s">
+      <c r="B142" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E142" s="71" t="s">
-        <v>218</v>
+      <c r="D142" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="61" t="s">
+        <v>202</v>
       </c>
       <c r="F142" s="8">
         <v>1</v>
@@ -6863,18 +6930,18 @@
     </row>
     <row r="143" spans="1:26" ht="60">
       <c r="A143" s="3"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="59"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
       <c r="F143" s="20">
         <v>2</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I143" s="21" t="s">
         <v>25</v>
@@ -6929,17 +6996,17 @@
     </row>
     <row r="145" spans="1:26" ht="45">
       <c r="A145" s="3"/>
-      <c r="B145" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C145" s="62" t="s">
+      <c r="B145" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E145" s="63" t="s">
-        <v>221</v>
+      <c r="D145" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" s="61" t="s">
+        <v>205</v>
       </c>
       <c r="F145" s="8">
         <v>1</v>
@@ -6975,10 +7042,10 @@
     </row>
     <row r="146" spans="1:26" ht="75">
       <c r="A146" s="3"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="59"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
       <c r="F146" s="8">
         <v>2</v>
       </c>
@@ -6986,13 +7053,13 @@
         <v>28</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -7042,16 +7109,16 @@
     <row r="148" spans="1:26" ht="60">
       <c r="A148" s="3"/>
       <c r="B148" s="14" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="F148" s="8">
         <v>1</v>
@@ -7116,16 +7183,16 @@
     <row r="150" spans="1:26" ht="105">
       <c r="A150" s="3"/>
       <c r="B150" s="14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F150" s="8">
         <v>1</v>
@@ -7190,16 +7257,16 @@
     <row r="152" spans="1:26" ht="75">
       <c r="A152" s="3"/>
       <c r="B152" s="14" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F152" s="8">
         <v>1</v>
@@ -7263,17 +7330,17 @@
     </row>
     <row r="154" spans="1:26" ht="45" customHeight="1">
       <c r="A154" s="3"/>
-      <c r="B154" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="C154" s="70" t="s">
+      <c r="B154" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C154" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D154" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="E154" s="71" t="s">
-        <v>218</v>
+      <c r="D154" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E154" s="61" t="s">
+        <v>202</v>
       </c>
       <c r="F154" s="8">
         <v>1</v>
@@ -7309,18 +7376,18 @@
     </row>
     <row r="155" spans="1:26" ht="60">
       <c r="A155" s="3"/>
-      <c r="B155" s="76"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="59"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="58"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="20">
         <v>2</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I155" s="21" t="s">
         <v>25</v>
@@ -7375,17 +7442,17 @@
     </row>
     <row r="157" spans="1:26" ht="45">
       <c r="A157" s="3"/>
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E157" s="61" t="s">
         <v>216</v>
-      </c>
-      <c r="C157" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="D157" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="E157" s="71" t="s">
-        <v>232</v>
       </c>
       <c r="F157" s="8">
         <v>1</v>
@@ -7421,18 +7488,18 @@
     </row>
     <row r="158" spans="1:26" ht="60">
       <c r="A158" s="3"/>
-      <c r="B158" s="76"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="64"/>
-      <c r="E158" s="59"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
       <c r="F158" s="20">
         <v>2</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H158" s="21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I158" s="21" t="s">
         <v>25</v>
@@ -7487,17 +7554,17 @@
     </row>
     <row r="160" spans="1:26" ht="45">
       <c r="A160" s="3"/>
-      <c r="B160" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="C160" s="68" t="s">
+      <c r="B160" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="E160" s="71" t="s">
-        <v>240</v>
+      <c r="D160" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E160" s="61" t="s">
+        <v>224</v>
       </c>
       <c r="F160" s="8">
         <v>1</v>
@@ -7533,18 +7600,18 @@
     </row>
     <row r="161" spans="1:26" ht="60">
       <c r="A161" s="3"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="59"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="20">
         <v>2</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I161" s="21" t="s">
         <v>25</v>
@@ -7599,17 +7666,17 @@
     </row>
     <row r="163" spans="1:26" ht="45">
       <c r="A163" s="3"/>
-      <c r="B163" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="C163" s="62" t="s">
+      <c r="B163" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E163" s="63" t="s">
-        <v>243</v>
+      <c r="D163" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E163" s="61" t="s">
+        <v>227</v>
       </c>
       <c r="F163" s="8">
         <v>1</v>
@@ -7645,10 +7712,10 @@
     </row>
     <row r="164" spans="1:26" ht="60">
       <c r="A164" s="3"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
+      <c r="B164" s="82"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="58"/>
       <c r="F164" s="8">
         <v>2</v>
       </c>
@@ -7656,13 +7723,13 @@
         <v>28</v>
       </c>
       <c r="H164" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="J164" s="13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -7712,16 +7779,16 @@
     <row r="166" spans="1:26" ht="60">
       <c r="A166" s="3"/>
       <c r="B166" s="14" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F166" s="8">
         <v>1</v>
@@ -7786,16 +7853,16 @@
     <row r="168" spans="1:26" ht="105">
       <c r="A168" s="3"/>
       <c r="B168" s="14" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F168" s="8">
         <v>1</v>
@@ -7860,16 +7927,16 @@
     <row r="170" spans="1:26" ht="75">
       <c r="A170" s="3"/>
       <c r="B170" s="14" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F170" s="8">
         <v>1</v>
@@ -7933,17 +8000,17 @@
     </row>
     <row r="172" spans="1:26" ht="45">
       <c r="A172" s="3"/>
-      <c r="B172" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C172" s="70" t="s">
+      <c r="B172" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C172" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D172" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="E172" s="71" t="s">
-        <v>240</v>
+      <c r="D172" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E172" s="61" t="s">
+        <v>224</v>
       </c>
       <c r="F172" s="8">
         <v>1</v>
@@ -7979,18 +8046,18 @@
     </row>
     <row r="173" spans="1:26" ht="60">
       <c r="A173" s="3"/>
-      <c r="B173" s="76"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="59"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
       <c r="F173" s="20">
         <v>2</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I173" s="21" t="s">
         <v>25</v>
@@ -8045,17 +8112,17 @@
     </row>
     <row r="175" spans="1:26" ht="45">
       <c r="A175" s="3"/>
-      <c r="B175" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C175" s="63" t="s">
+      <c r="B175" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D175" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E175" s="63" t="s">
-        <v>243</v>
+      <c r="D175" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175" s="61" t="s">
+        <v>227</v>
       </c>
       <c r="F175" s="8">
         <v>1</v>
@@ -8091,10 +8158,10 @@
     </row>
     <row r="176" spans="1:26" ht="60">
       <c r="A176" s="3"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="59"/>
-      <c r="E176" s="59"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
       <c r="F176" s="8">
         <v>2</v>
       </c>
@@ -8102,13 +8169,13 @@
         <v>28</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="J176" s="13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -8158,16 +8225,16 @@
     <row r="178" spans="1:26" ht="60">
       <c r="A178" s="3"/>
       <c r="B178" s="14" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F178" s="8">
         <v>1</v>
@@ -8232,16 +8299,16 @@
     <row r="180" spans="1:26" ht="75">
       <c r="A180" s="3"/>
       <c r="B180" s="14" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F180" s="8">
         <v>1</v>
@@ -30761,94 +30828,88 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C124:C125"/>
     <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="E115:E116"/>
     <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
@@ -30873,32 +30934,38 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D97:D98"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
